--- a/assets/caracteristicas_tiendas.xlsx
+++ b/assets/caracteristicas_tiendas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb438b8fa1716310/Imágenes/ventas_miniso/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb438b8fa1716310/Imágenes/retail_sales/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="8_{B8878062-020C-438B-B080-37BC1AAD407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A561076A-96C3-490E-9187-BD511402EE87}"/>
+  <xr:revisionPtr revIDLastSave="585" documentId="8_{B8878062-020C-438B-B080-37BC1AAD407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0575D7A3-CFA8-4F39-87C3-D49A0FC1F1D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3181,9 +3181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
